--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jag2-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Jag2-Notch1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H2">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I2">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J2">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N2">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P2">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q2">
-        <v>695.6878862947315</v>
+        <v>1012.145776688367</v>
       </c>
       <c r="R2">
-        <v>6261.190976652584</v>
+        <v>9109.3119901953</v>
       </c>
       <c r="S2">
-        <v>0.2050592363606369</v>
+        <v>0.3285318847630975</v>
       </c>
       <c r="T2">
-        <v>0.2050592363606369</v>
+        <v>0.3285318847630975</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H3">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I3">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J3">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>17.152367</v>
       </c>
       <c r="O3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P3">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q3">
-        <v>88.13359951092909</v>
+        <v>92.4591005733561</v>
       </c>
       <c r="R3">
-        <v>793.2023955983618</v>
+        <v>832.1319051602048</v>
       </c>
       <c r="S3">
-        <v>0.0259780412588193</v>
+        <v>0.03001125260261593</v>
       </c>
       <c r="T3">
-        <v>0.02597804125881929</v>
+        <v>0.03001125260261593</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H4">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I4">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J4">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N4">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O4">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P4">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q4">
-        <v>218.4502373475271</v>
+        <v>260.7523877636383</v>
       </c>
       <c r="R4">
-        <v>1966.052136127744</v>
+        <v>2346.771489872745</v>
       </c>
       <c r="S4">
-        <v>0.0643898502989113</v>
+        <v>0.08463748541119684</v>
       </c>
       <c r="T4">
-        <v>0.06438985029891128</v>
+        <v>0.08463748541119684</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H5">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I5">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J5">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N5">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P5">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q5">
-        <v>506.5065034952755</v>
+        <v>183.9709522704228</v>
       </c>
       <c r="R5">
-        <v>4558.558531457479</v>
+        <v>1655.738570433805</v>
       </c>
       <c r="S5">
-        <v>0.1492966010542766</v>
+        <v>0.05971503817248358</v>
       </c>
       <c r="T5">
-        <v>0.1492966010542766</v>
+        <v>0.05971503817248357</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H6">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I6">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J6">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N6">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P6">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q6">
-        <v>439.8023470212115</v>
+        <v>591.0161930026538</v>
       </c>
       <c r="R6">
-        <v>3958.221123190904</v>
+        <v>5319.145737023885</v>
       </c>
       <c r="S6">
-        <v>0.1296350492892986</v>
+        <v>0.1918376465966873</v>
       </c>
       <c r="T6">
-        <v>0.1296350492892986</v>
+        <v>0.1918376465966873</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.41482866666666</v>
+        <v>16.17137166666667</v>
       </c>
       <c r="H7">
-        <v>46.24448599999999</v>
+        <v>48.514115</v>
       </c>
       <c r="I7">
-        <v>0.6468072013652575</v>
+        <v>0.7585244522005803</v>
       </c>
       <c r="J7">
-        <v>0.6468072013652573</v>
+        <v>0.7585244522005804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N7">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P7">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q7">
-        <v>245.78990553486</v>
+        <v>196.5286800053705</v>
       </c>
       <c r="R7">
-        <v>2212.10914981374</v>
+        <v>1768.758120048335</v>
       </c>
       <c r="S7">
-        <v>0.07244842310331481</v>
+        <v>0.06379114465449923</v>
       </c>
       <c r="T7">
-        <v>0.07244842310331479</v>
+        <v>0.06379114465449923</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.415244</v>
       </c>
       <c r="I8">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J8">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N8">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P8">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q8">
-        <v>6.246803579059555</v>
+        <v>8.663199584186666</v>
       </c>
       <c r="R8">
-        <v>56.22123221153601</v>
+        <v>77.96879625768</v>
       </c>
       <c r="S8">
-        <v>0.001841292333605704</v>
+        <v>0.002811983563063403</v>
       </c>
       <c r="T8">
-        <v>0.001841292333605704</v>
+        <v>0.002811983563063402</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.415244</v>
       </c>
       <c r="I9">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J9">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>17.152367</v>
       </c>
       <c r="O9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P9">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q9">
         <v>0.791379720283111</v>
@@ -1013,10 +1013,10 @@
         <v>7.122417482547999</v>
       </c>
       <c r="S9">
-        <v>0.0002332651240728929</v>
+        <v>0.0002568735423849462</v>
       </c>
       <c r="T9">
-        <v>0.0002332651240728929</v>
+        <v>0.0002568735423849461</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.415244</v>
       </c>
       <c r="I10">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J10">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N10">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O10">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P10">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q10">
-        <v>1.961534405575111</v>
+        <v>2.231842516441333</v>
       </c>
       <c r="R10">
-        <v>17.653809650176</v>
+        <v>20.086582647972</v>
       </c>
       <c r="S10">
-        <v>0.0005781770176345158</v>
+        <v>0.0007244326314534858</v>
       </c>
       <c r="T10">
-        <v>0.0005781770176345158</v>
+        <v>0.0007244326314534858</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.415244</v>
       </c>
       <c r="I11">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J11">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N11">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P11">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q11">
-        <v>4.548083560435555</v>
+        <v>1.574651709189778</v>
       </c>
       <c r="R11">
-        <v>40.93275204392</v>
+        <v>14.171865382708</v>
       </c>
       <c r="S11">
-        <v>0.001340581833003442</v>
+        <v>0.0005111154003509035</v>
       </c>
       <c r="T11">
-        <v>0.001340581833003442</v>
+        <v>0.0005111154003509034</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.415244</v>
       </c>
       <c r="I12">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J12">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N12">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P12">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q12">
-        <v>3.949125648979555</v>
+        <v>5.058650004172889</v>
       </c>
       <c r="R12">
-        <v>35.542130840816</v>
+        <v>45.527850037556</v>
       </c>
       <c r="S12">
-        <v>0.001164034484177973</v>
+        <v>0.001641984641447027</v>
       </c>
       <c r="T12">
-        <v>0.001164034484177973</v>
+        <v>0.001641984641447027</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.415244</v>
       </c>
       <c r="I13">
-        <v>0.005807888307456049</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="J13">
-        <v>0.005807888307456048</v>
+        <v>0.006492393556588177</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N13">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P13">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q13">
-        <v>2.20702601244</v>
+        <v>1.682136326719555</v>
       </c>
       <c r="R13">
-        <v>19.86323411196</v>
+        <v>15.139226940476</v>
       </c>
       <c r="S13">
-        <v>0.0006505375149615212</v>
+        <v>0.0005460037778884121</v>
       </c>
       <c r="T13">
-        <v>0.000650537514961521</v>
+        <v>0.000546003777888412</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.618736666666666</v>
+        <v>1.939353</v>
       </c>
       <c r="H14">
-        <v>4.856209999999999</v>
+        <v>5.818059</v>
       </c>
       <c r="I14">
-        <v>0.06792229454862957</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J14">
-        <v>0.06792229454862955</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N14">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P14">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q14">
-        <v>73.0553361605822</v>
+        <v>121.38166068522</v>
       </c>
       <c r="R14">
-        <v>657.4980254452399</v>
+        <v>1092.43494616698</v>
       </c>
       <c r="S14">
-        <v>0.02153360974121084</v>
+        <v>0.03939921173318121</v>
       </c>
       <c r="T14">
-        <v>0.02153360974121084</v>
+        <v>0.03939921173318121</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.618736666666666</v>
+        <v>1.939353</v>
       </c>
       <c r="H15">
-        <v>4.856209999999999</v>
+        <v>5.818059</v>
       </c>
       <c r="I15">
-        <v>0.06792229454862957</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J15">
-        <v>0.06792229454862955</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>17.152367</v>
       </c>
       <c r="O15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P15">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q15">
-        <v>9.25505512767444</v>
+        <v>11.088164799517</v>
       </c>
       <c r="R15">
-        <v>83.29549614906998</v>
+        <v>99.79348319565298</v>
       </c>
       <c r="S15">
-        <v>0.002727997100919033</v>
+        <v>0.003599101793486763</v>
       </c>
       <c r="T15">
-        <v>0.002727997100919033</v>
+        <v>0.003599101793486762</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.618736666666666</v>
+        <v>1.939353</v>
       </c>
       <c r="H16">
-        <v>4.856209999999999</v>
+        <v>5.818059</v>
       </c>
       <c r="I16">
-        <v>0.06792229454862957</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J16">
-        <v>0.06792229454862955</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N16">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O16">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P16">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q16">
-        <v>22.93982091420444</v>
+        <v>31.27075030431299</v>
       </c>
       <c r="R16">
-        <v>206.4583882278399</v>
+        <v>281.436752738817</v>
       </c>
       <c r="S16">
-        <v>0.006761684731885136</v>
+        <v>0.01015015699521639</v>
       </c>
       <c r="T16">
-        <v>0.006761684731885136</v>
+        <v>0.01015015699521639</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.618736666666666</v>
+        <v>1.939353</v>
       </c>
       <c r="H17">
-        <v>4.856209999999999</v>
+        <v>5.818059</v>
       </c>
       <c r="I17">
-        <v>0.06792229454862957</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J17">
-        <v>0.06792229454862955</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N17">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P17">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q17">
-        <v>53.18908609642221</v>
+        <v>22.062730704157</v>
       </c>
       <c r="R17">
-        <v>478.7017748677998</v>
+        <v>198.564576337413</v>
       </c>
       <c r="S17">
-        <v>0.01567788313196493</v>
+        <v>0.007161330579250218</v>
       </c>
       <c r="T17">
-        <v>0.01567788313196493</v>
+        <v>0.007161330579250215</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.618736666666666</v>
+        <v>1.939353</v>
       </c>
       <c r="H18">
-        <v>4.856209999999999</v>
+        <v>5.818059</v>
       </c>
       <c r="I18">
-        <v>0.06792229454862957</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J18">
-        <v>0.06792229454862955</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N18">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P18">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q18">
-        <v>46.18437224338221</v>
+        <v>70.87766273474899</v>
       </c>
       <c r="R18">
-        <v>415.65935019044</v>
+        <v>637.898964612741</v>
       </c>
       <c r="S18">
-        <v>0.01361319104528883</v>
+        <v>0.02300614463070544</v>
       </c>
       <c r="T18">
-        <v>0.01361319104528883</v>
+        <v>0.02300614463070544</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.618736666666666</v>
+        <v>1.939353</v>
       </c>
       <c r="H19">
-        <v>4.856209999999999</v>
+        <v>5.818059</v>
       </c>
       <c r="I19">
-        <v>0.06792229454862957</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="J19">
-        <v>0.06792229454862955</v>
+        <v>0.0909661036967418</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N19">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P19">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q19">
-        <v>25.81080471209999</v>
+        <v>23.568717175679</v>
       </c>
       <c r="R19">
-        <v>232.2972424089</v>
+        <v>212.118454581111</v>
       </c>
       <c r="S19">
-        <v>0.007607928797360801</v>
+        <v>0.007650157964901785</v>
       </c>
       <c r="T19">
-        <v>0.007607928797360798</v>
+        <v>0.007650157964901784</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.396580666666667</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H20">
-        <v>4.189742</v>
+        <v>5.052394</v>
       </c>
       <c r="I20">
-        <v>0.05860061451353307</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J20">
-        <v>0.05860061451353305</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N20">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O20">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P20">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q20">
-        <v>63.02919565589423</v>
+        <v>105.4076581478533</v>
       </c>
       <c r="R20">
-        <v>567.262760903048</v>
+        <v>948.6689233306799</v>
       </c>
       <c r="S20">
-        <v>0.0185783294265199</v>
+        <v>0.03421421834420282</v>
       </c>
       <c r="T20">
-        <v>0.0185783294265199</v>
+        <v>0.03421421834420282</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.396580666666667</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H21">
-        <v>4.189742</v>
+        <v>5.052394</v>
       </c>
       <c r="I21">
-        <v>0.05860061451353307</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J21">
-        <v>0.05860061451353305</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>17.152367</v>
       </c>
       <c r="O21">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P21">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q21">
-        <v>7.984888046590444</v>
+        <v>9.628946235177553</v>
       </c>
       <c r="R21">
-        <v>71.86399241931399</v>
+        <v>86.66051611659799</v>
       </c>
       <c r="S21">
-        <v>0.002353605801561035</v>
+        <v>0.003125454779128531</v>
       </c>
       <c r="T21">
-        <v>0.002353605801561035</v>
+        <v>0.00312545477912853</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.396580666666667</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H22">
-        <v>4.189742</v>
+        <v>5.052394</v>
       </c>
       <c r="I22">
-        <v>0.05860061451353307</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J22">
-        <v>0.05860061451353305</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N22">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O22">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P22">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q22">
-        <v>19.79155167439644</v>
+        <v>27.15547422482466</v>
       </c>
       <c r="R22">
-        <v>178.123965069568</v>
+        <v>244.399268023422</v>
       </c>
       <c r="S22">
-        <v>0.005833708697098747</v>
+        <v>0.00881438161793982</v>
       </c>
       <c r="T22">
-        <v>0.005833708697098746</v>
+        <v>0.00881438161793982</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.396580666666667</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H23">
-        <v>4.189742</v>
+        <v>5.052394</v>
       </c>
       <c r="I23">
-        <v>0.05860061451353307</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J23">
-        <v>0.05860061451353305</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N23">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O23">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P23">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q23">
-        <v>45.88939686706222</v>
+        <v>19.15924335475089</v>
       </c>
       <c r="R23">
-        <v>413.0045718035599</v>
+        <v>172.433190192758</v>
       </c>
       <c r="S23">
-        <v>0.01352624483477548</v>
+        <v>0.00621888909181229</v>
       </c>
       <c r="T23">
-        <v>0.01352624483477548</v>
+        <v>0.006218889091812289</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.396580666666667</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H24">
-        <v>4.189742</v>
+        <v>5.052394</v>
       </c>
       <c r="I24">
-        <v>0.05860061451353307</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J24">
-        <v>0.05860061451353305</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N24">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O24">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P24">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q24">
-        <v>39.84601245245423</v>
+        <v>61.55005955337844</v>
       </c>
       <c r="R24">
-        <v>358.614112072088</v>
+        <v>553.9505359804059</v>
       </c>
       <c r="S24">
-        <v>0.0117449118296924</v>
+        <v>0.0199785026407103</v>
       </c>
       <c r="T24">
-        <v>0.0117449118296924</v>
+        <v>0.01997850264071031</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.396580666666667</v>
+        <v>1.684131333333333</v>
       </c>
       <c r="H25">
-        <v>4.189742</v>
+        <v>5.052394</v>
       </c>
       <c r="I25">
-        <v>0.05860061451353307</v>
+        <v>0.07899483255855536</v>
       </c>
       <c r="J25">
-        <v>0.05860061451353305</v>
+        <v>0.07899483255855537</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N25">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O25">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P25">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q25">
-        <v>22.26852062742</v>
+        <v>20.46703982309178</v>
       </c>
       <c r="R25">
-        <v>200.41668564678</v>
+        <v>184.203358407826</v>
       </c>
       <c r="S25">
-        <v>0.006563813923885508</v>
+        <v>0.006643386084761599</v>
       </c>
       <c r="T25">
-        <v>0.006563813923885505</v>
+        <v>0.006643386084761599</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.8970403333333334</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H26">
-        <v>2.691121</v>
+        <v>1.410979</v>
       </c>
       <c r="I26">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J26">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N26">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O26">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P26">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q26">
-        <v>40.48440024294712</v>
+        <v>29.43713259215334</v>
       </c>
       <c r="R26">
-        <v>364.3596021865241</v>
+        <v>264.93419332938</v>
       </c>
       <c r="S26">
-        <v>0.01193308143189382</v>
+        <v>0.009554983951189269</v>
       </c>
       <c r="T26">
-        <v>0.01193308143189382</v>
+        <v>0.009554983951189269</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.8970403333333334</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H27">
-        <v>2.691121</v>
+        <v>1.410979</v>
       </c>
       <c r="I27">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J27">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>17.152367</v>
       </c>
       <c r="O27">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P27">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q27">
-        <v>5.128788337045222</v>
+        <v>2.689069959699222</v>
       </c>
       <c r="R27">
-        <v>46.159095033407</v>
+        <v>24.201629637293</v>
       </c>
       <c r="S27">
-        <v>0.001511748933061448</v>
+        <v>0.000872843855566291</v>
       </c>
       <c r="T27">
-        <v>0.001511748933061448</v>
+        <v>0.0008728438555662909</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.8970403333333334</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H28">
-        <v>2.691121</v>
+        <v>1.410979</v>
       </c>
       <c r="I28">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J28">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N28">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O28">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P28">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q28">
-        <v>12.71234847719822</v>
+        <v>7.583692773419666</v>
       </c>
       <c r="R28">
-        <v>114.411136294784</v>
+        <v>68.25323496077699</v>
       </c>
       <c r="S28">
-        <v>0.003747060316039765</v>
+        <v>0.002461586994383081</v>
       </c>
       <c r="T28">
-        <v>0.003747060316039765</v>
+        <v>0.002461586994383081</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.8970403333333334</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H29">
-        <v>2.691121</v>
+        <v>1.410979</v>
       </c>
       <c r="I29">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J29">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N29">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O29">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P29">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q29">
-        <v>29.47530410853111</v>
+        <v>5.350590240872556</v>
       </c>
       <c r="R29">
-        <v>265.27773697678</v>
+        <v>48.155312167853</v>
       </c>
       <c r="S29">
-        <v>0.008688067553086999</v>
+        <v>0.001736745374940318</v>
       </c>
       <c r="T29">
-        <v>0.008688067553086997</v>
+        <v>0.001736745374940318</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.8970403333333334</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H30">
-        <v>2.691121</v>
+        <v>1.410979</v>
       </c>
       <c r="I30">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J30">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N30">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O30">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P30">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q30">
-        <v>25.59356659122712</v>
+        <v>17.18904770264678</v>
       </c>
       <c r="R30">
-        <v>230.3420993210441</v>
+        <v>154.701429323821</v>
       </c>
       <c r="S30">
-        <v>0.007543896227508434</v>
+        <v>0.005579384283467755</v>
       </c>
       <c r="T30">
-        <v>0.007543896227508434</v>
+        <v>0.005579384283467756</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.8970403333333334</v>
+        <v>0.4703263333333333</v>
       </c>
       <c r="H31">
-        <v>2.691121</v>
+        <v>1.410979</v>
       </c>
       <c r="I31">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="J31">
-        <v>0.03763987002786177</v>
+        <v>0.02206083885156975</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N31">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O31">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P31">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q31">
-        <v>14.30333502621</v>
+        <v>5.715817765310112</v>
       </c>
       <c r="R31">
-        <v>128.73001523589</v>
+        <v>51.442359887791</v>
       </c>
       <c r="S31">
-        <v>0.004216015566271311</v>
+        <v>0.001855294392023036</v>
       </c>
       <c r="T31">
-        <v>0.004216015566271309</v>
+        <v>0.001855294392023036</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>4.366583666666666</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H32">
-        <v>13.099751</v>
+        <v>2.747747</v>
       </c>
       <c r="I32">
-        <v>0.1832221312372622</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J32">
-        <v>0.1832221312372621</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>45.13108133333333</v>
+        <v>62.58874</v>
       </c>
       <c r="N32">
-        <v>135.393244</v>
+        <v>187.76622</v>
       </c>
       <c r="O32">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873656</v>
       </c>
       <c r="P32">
-        <v>0.3170330137447531</v>
+        <v>0.4331197020873655</v>
       </c>
       <c r="Q32">
-        <v>197.0686426091382</v>
+        <v>57.32600752292667</v>
       </c>
       <c r="R32">
-        <v>1773.617783482244</v>
+        <v>515.93406770634</v>
       </c>
       <c r="S32">
-        <v>0.05808746445088589</v>
+        <v>0.01860741973263136</v>
       </c>
       <c r="T32">
-        <v>0.05808746445088587</v>
+        <v>0.01860741973263136</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>4.366583666666666</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H33">
-        <v>13.099751</v>
+        <v>2.747747</v>
       </c>
       <c r="I33">
-        <v>0.1832221312372622</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J33">
-        <v>0.1832221312372621</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>17.152367</v>
       </c>
       <c r="O33">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562308</v>
       </c>
       <c r="P33">
-        <v>0.04016350035062346</v>
+        <v>0.03956530671562306</v>
       </c>
       <c r="Q33">
-        <v>24.96574852895744</v>
+        <v>5.236707218572111</v>
       </c>
       <c r="R33">
-        <v>224.6917367606169</v>
+        <v>47.13036496714899</v>
       </c>
       <c r="S33">
-        <v>0.007358842132189757</v>
+        <v>0.00169978014244061</v>
       </c>
       <c r="T33">
-        <v>0.007358842132189754</v>
+        <v>0.00169978014244061</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>4.366583666666666</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H34">
-        <v>13.099751</v>
+        <v>2.747747</v>
       </c>
       <c r="I34">
-        <v>0.1832221312372622</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J34">
-        <v>0.1832221312372621</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>14.17143466666666</v>
+        <v>16.124321</v>
       </c>
       <c r="N34">
-        <v>42.514304</v>
+        <v>48.372963</v>
       </c>
       <c r="O34">
-        <v>0.09955029901182223</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="P34">
-        <v>0.09955029901182225</v>
+        <v>0.111581749494894</v>
       </c>
       <c r="Q34">
-        <v>61.88075514870043</v>
+        <v>14.76851821826233</v>
       </c>
       <c r="R34">
-        <v>556.9267963383038</v>
+        <v>132.916663964361</v>
       </c>
       <c r="S34">
-        <v>0.01823981795025278</v>
+        <v>0.004793705844704369</v>
       </c>
       <c r="T34">
-        <v>0.01823981795025278</v>
+        <v>0.004793705844704369</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>4.366583666666666</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H35">
-        <v>13.099751</v>
+        <v>2.747747</v>
       </c>
       <c r="I35">
-        <v>0.1832221312372622</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J35">
-        <v>0.1832221312372621</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>32.85839333333333</v>
+        <v>11.37633566666667</v>
       </c>
       <c r="N35">
-        <v>98.57517999999999</v>
+        <v>34.129007</v>
       </c>
       <c r="O35">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705194</v>
       </c>
       <c r="P35">
-        <v>0.2308208701745229</v>
+        <v>0.07872526455705191</v>
       </c>
       <c r="Q35">
-        <v>143.4789236422422</v>
+        <v>10.41976406635878</v>
       </c>
       <c r="R35">
-        <v>1291.31031278018</v>
+        <v>93.777876597229</v>
       </c>
       <c r="S35">
-        <v>0.04229149176741549</v>
+        <v>0.003382145938214626</v>
       </c>
       <c r="T35">
-        <v>0.04229149176741548</v>
+        <v>0.003382145938214625</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>4.366583666666666</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H36">
-        <v>13.099751</v>
+        <v>2.747747</v>
       </c>
       <c r="I36">
-        <v>0.1832221312372622</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J36">
-        <v>0.1832221312372621</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>28.53112133333333</v>
+        <v>36.54706633333333</v>
       </c>
       <c r="N36">
-        <v>85.59336400000001</v>
+        <v>109.641199</v>
       </c>
       <c r="O36">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="P36">
-        <v>0.2004230147958612</v>
+        <v>0.2529089814311731</v>
       </c>
       <c r="Q36">
-        <v>124.5835284058182</v>
+        <v>33.47403062540589</v>
       </c>
       <c r="R36">
-        <v>1121.251755652364</v>
+        <v>301.266275628653</v>
       </c>
       <c r="S36">
-        <v>0.03672193191989503</v>
+        <v>0.01086531863815526</v>
       </c>
       <c r="T36">
-        <v>0.03672193191989501</v>
+        <v>0.01086531863815526</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>4.366583666666666</v>
+        <v>0.9159156666666667</v>
       </c>
       <c r="H37">
-        <v>13.099751</v>
+        <v>2.747747</v>
       </c>
       <c r="I37">
-        <v>0.1832221312372622</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="J37">
-        <v>0.1832221312372621</v>
+        <v>0.04296137913596462</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>15.94503</v>
+        <v>12.15287633333333</v>
       </c>
       <c r="N37">
-        <v>47.83509</v>
+        <v>36.458629</v>
       </c>
       <c r="O37">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389245</v>
       </c>
       <c r="P37">
-        <v>0.1120093019224172</v>
+        <v>0.08409899571389244</v>
       </c>
       <c r="Q37">
-        <v>69.62530756251</v>
+        <v>11.13100982876256</v>
       </c>
       <c r="R37">
-        <v>626.6277680625899</v>
+        <v>100.179088458863</v>
       </c>
       <c r="S37">
-        <v>0.02052258301662324</v>
+        <v>0.003613008839818398</v>
       </c>
       <c r="T37">
-        <v>0.02052258301662323</v>
+        <v>0.003613008839818397</v>
       </c>
     </row>
   </sheetData>
